--- a/Asset-Risk-ICS.xlsx
+++ b/Asset-Risk-ICS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Asset Identification" sheetId="1" state="visible" r:id="rId3"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
   <si>
     <t xml:space="preserve">Asset ID</t>
   </si>
@@ -68,6 +68,15 @@
     <t xml:space="preserve">CPS Lab</t>
   </si>
   <si>
+    <t xml:space="preserve">Count and segregate blue and green products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Workstation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H</t>
+  </si>
+  <si>
     <t xml:space="preserve">A002</t>
   </si>
   <si>
@@ -77,12 +86,15 @@
     <t xml:space="preserve">Intel Core i5 – 9600K</t>
   </si>
   <si>
-    <t xml:space="preserve">Workstation</t>
-  </si>
-  <si>
     <t xml:space="preserve">Win 10 (10.0.19045)</t>
   </si>
   <si>
+    <t xml:space="preserve">Codesys client operation &amp; plant simulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
     <t xml:space="preserve">A003</t>
   </si>
   <si>
@@ -95,6 +107,9 @@
     <t xml:space="preserve">Manageable Switch</t>
   </si>
   <si>
+    <t xml:space="preserve">Communication</t>
+  </si>
+  <si>
     <t xml:space="preserve">A004</t>
   </si>
   <si>
@@ -132,6 +147,48 @@
   </si>
   <si>
     <t xml:space="preserve">Impact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Privileged User</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Financial gain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unauthorized changes in control logic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insiders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accidental deletion of control logic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hacker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denial of Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access sensitive – browser based information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CVE-203-20188, last updated 21/11/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conduct a cross-site scripting (XSS) attack.</t>
   </si>
 </sst>
 </file>
@@ -146,6 +203,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -167,12 +225,14 @@
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -217,20 +277,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -359,132 +423,175 @@
   </sheetPr>
   <dimension ref="A2:J8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="27.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="27.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="38.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="18.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="12.69"/>
   </cols>
   <sheetData>
-    <row r="2" s="1" customFormat="true" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" s="2" customFormat="true" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="0" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="0" t="s">
+      <c r="G7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>14</v>
+      <c r="G8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -503,44 +610,103 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:H2"/>
+  <dimension ref="A2:H6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="38.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="34.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="37.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.31"/>
   </cols>
   <sheetData>
-    <row r="2" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>36</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>4.8</v>
       </c>
     </row>
   </sheetData>
